--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 2 - definitions of geographic abbreviations.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 2 - definitions of geographic abbreviations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB9C76-1386-408F-93C0-063C4A9AB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C6999-E164-4519-8411-DEEDFE23D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{896C1A1E-2606-409F-854D-6AD8DC8FC20B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Definitions of the geographic abbreviations used in column headings and R scripts</t>
   </si>
@@ -146,14 +147,40 @@
   </si>
   <si>
     <t>Cartier Island</t>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitions of the geographic abbreviations used in column headings throughout R scripts and the other supplementary files. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,12 +524,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159735E7-EFE0-46AD-96B0-3CA9631244ED}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845B9E7A-A776-4C9F-A6C8-CCEB36CF483C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
